--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.23214496559661</v>
+        <v>2.464682</v>
       </c>
       <c r="H2">
-        <v>2.23214496559661</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="I2">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="J2">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.23214496559661</v>
+        <v>2.464682</v>
       </c>
       <c r="N2">
-        <v>2.23214496559661</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="O2">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="P2">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="Q2">
-        <v>4.982471147438292</v>
+        <v>6.074657361123999</v>
       </c>
       <c r="R2">
-        <v>4.982471147438292</v>
+        <v>54.67191625011599</v>
       </c>
       <c r="S2">
-        <v>0.04490779721006865</v>
+        <v>0.04389088088515263</v>
       </c>
       <c r="T2">
-        <v>0.04490779721006865</v>
+        <v>0.04389088088515263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.23214496559661</v>
+        <v>2.464682</v>
       </c>
       <c r="H3">
-        <v>2.23214496559661</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="I3">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="J3">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.32373528319991</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="N3">
-        <v>7.32373528319991</v>
+        <v>23.950568</v>
       </c>
       <c r="O3">
-        <v>0.6952982214945851</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="P3">
-        <v>0.6952982214945851</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="Q3">
-        <v>16.34763884175694</v>
+        <v>19.67684461312533</v>
       </c>
       <c r="R3">
-        <v>16.34763884175694</v>
+        <v>177.091601518128</v>
       </c>
       <c r="S3">
-        <v>0.1473438436962177</v>
+        <v>0.1421700010007712</v>
       </c>
       <c r="T3">
-        <v>0.1473438436962177</v>
+        <v>0.1421700010007712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,123 +643,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.23214496559661</v>
+        <v>2.464682</v>
       </c>
       <c r="H4">
-        <v>2.23214496559661</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="I4">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="J4">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.977348597175649</v>
+        <v>0.060381</v>
       </c>
       <c r="N4">
-        <v>0.977348597175649</v>
+        <v>0.181143</v>
       </c>
       <c r="O4">
-        <v>0.09278717964524053</v>
+        <v>0.00513247161901269</v>
       </c>
       <c r="P4">
-        <v>0.09278717964524053</v>
+        <v>0.00513247161901269</v>
       </c>
       <c r="Q4">
-        <v>2.181583750818534</v>
+        <v>0.148819963842</v>
       </c>
       <c r="R4">
-        <v>2.181583750818534</v>
+        <v>1.339379674578</v>
       </c>
       <c r="S4">
-        <v>0.01966295795388809</v>
+        <v>0.001075260532079352</v>
       </c>
       <c r="T4">
-        <v>0.01966295795388809</v>
+        <v>0.001075260532079352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.32373528319991</v>
+        <v>2.464682</v>
       </c>
       <c r="H5">
-        <v>7.32373528319991</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="I5">
-        <v>0.6952982214945851</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="J5">
-        <v>0.6952982214945851</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.23214496559661</v>
+        <v>1.255921666666667</v>
       </c>
       <c r="N5">
-        <v>2.23214496559661</v>
+        <v>3.767765</v>
       </c>
       <c r="O5">
-        <v>0.2119145988601744</v>
+        <v>0.1067551433376357</v>
       </c>
       <c r="P5">
-        <v>0.2119145988601744</v>
+        <v>0.1067551433376357</v>
       </c>
       <c r="Q5">
-        <v>16.34763884175694</v>
+        <v>3.095447525243333</v>
       </c>
       <c r="R5">
-        <v>16.34763884175694</v>
+        <v>27.85902772719</v>
       </c>
       <c r="S5">
-        <v>0.1473438436962177</v>
+        <v>0.02236536326907448</v>
       </c>
       <c r="T5">
-        <v>0.1473438436962177</v>
+        <v>0.02236536326907448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -764,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.32373528319991</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H6">
-        <v>7.32373528319991</v>
+        <v>23.950568</v>
       </c>
       <c r="I6">
-        <v>0.6952982214945851</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="J6">
-        <v>0.6952982214945851</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.32373528319991</v>
+        <v>2.464682</v>
       </c>
       <c r="N6">
-        <v>7.32373528319991</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="O6">
-        <v>0.6952982214945851</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="P6">
-        <v>0.6952982214945851</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="Q6">
-        <v>53.63709849838726</v>
+        <v>19.67684461312533</v>
       </c>
       <c r="R6">
-        <v>53.63709849838726</v>
+        <v>177.091601518128</v>
       </c>
       <c r="S6">
-        <v>0.4834396168135331</v>
+        <v>0.1421700010007712</v>
       </c>
       <c r="T6">
-        <v>0.4834396168135331</v>
+        <v>0.1421700010007712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,185 +829,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.32373528319991</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H7">
-        <v>7.32373528319991</v>
+        <v>23.950568</v>
       </c>
       <c r="I7">
-        <v>0.6952982214945851</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="J7">
-        <v>0.6952982214945851</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.977348597175649</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="N7">
-        <v>0.977348597175649</v>
+        <v>23.950568</v>
       </c>
       <c r="O7">
-        <v>0.09278717964524053</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="P7">
-        <v>0.09278717964524053</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="Q7">
-        <v>7.157842405121237</v>
+        <v>63.73663416918043</v>
       </c>
       <c r="R7">
-        <v>7.157842405121237</v>
+        <v>573.6297075226239</v>
       </c>
       <c r="S7">
-        <v>0.0645147609848343</v>
+        <v>0.4605127255806953</v>
       </c>
       <c r="T7">
-        <v>0.0645147609848343</v>
+        <v>0.4605127255806954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.977348597175649</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H8">
-        <v>0.977348597175649</v>
+        <v>23.950568</v>
       </c>
       <c r="I8">
-        <v>0.09278717964524053</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="J8">
-        <v>0.09278717964524053</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.23214496559661</v>
+        <v>0.060381</v>
       </c>
       <c r="N8">
-        <v>2.23214496559661</v>
+        <v>0.181143</v>
       </c>
       <c r="O8">
-        <v>0.2119145988601744</v>
+        <v>0.00513247161901269</v>
       </c>
       <c r="P8">
-        <v>0.2119145988601744</v>
+        <v>0.00513247161901269</v>
       </c>
       <c r="Q8">
-        <v>2.181583750818534</v>
+        <v>0.4820530821359999</v>
       </c>
       <c r="R8">
-        <v>2.181583750818534</v>
+        <v>4.338477739223999</v>
       </c>
       <c r="S8">
-        <v>0.01966295795388809</v>
+        <v>0.00348295107864932</v>
       </c>
       <c r="T8">
-        <v>0.01966295795388809</v>
+        <v>0.003482951078649321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.977348597175649</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H9">
-        <v>0.977348597175649</v>
+        <v>23.950568</v>
       </c>
       <c r="I9">
-        <v>0.09278717964524053</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="J9">
-        <v>0.09278717964524053</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.32373528319991</v>
+        <v>1.255921666666667</v>
       </c>
       <c r="N9">
-        <v>7.32373528319991</v>
+        <v>3.767765</v>
       </c>
       <c r="O9">
-        <v>0.6952982214945851</v>
+        <v>0.1067551433376357</v>
       </c>
       <c r="P9">
-        <v>0.6952982214945851</v>
+        <v>0.1067551433376357</v>
       </c>
       <c r="Q9">
-        <v>7.157842405121237</v>
+        <v>10.02667909339111</v>
       </c>
       <c r="R9">
-        <v>7.157842405121237</v>
+        <v>90.24011184052</v>
       </c>
       <c r="S9">
-        <v>0.0645147609848343</v>
+        <v>0.07244520169615805</v>
       </c>
       <c r="T9">
-        <v>0.0645147609848343</v>
+        <v>0.07244520169615806</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1012,61 +1015,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.060381</v>
+      </c>
+      <c r="H10">
+        <v>0.181143</v>
+      </c>
+      <c r="I10">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="J10">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.464682</v>
+      </c>
+      <c r="N10">
+        <v>7.394045999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2095015056870776</v>
+      </c>
+      <c r="P10">
+        <v>0.2095015056870776</v>
+      </c>
+      <c r="Q10">
+        <v>0.148819963842</v>
+      </c>
+      <c r="R10">
+        <v>1.339379674578</v>
+      </c>
+      <c r="S10">
+        <v>0.001075260532079352</v>
+      </c>
+      <c r="T10">
+        <v>0.001075260532079352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.060381</v>
+      </c>
+      <c r="H11">
+        <v>0.181143</v>
+      </c>
+      <c r="I11">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="J11">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.983522666666666</v>
+      </c>
+      <c r="N11">
+        <v>23.950568</v>
+      </c>
+      <c r="O11">
+        <v>0.6786108793562738</v>
+      </c>
+      <c r="P11">
+        <v>0.678610879356274</v>
+      </c>
+      <c r="Q11">
+        <v>0.4820530821359999</v>
+      </c>
+      <c r="R11">
+        <v>4.338477739223999</v>
+      </c>
+      <c r="S11">
+        <v>0.00348295107864932</v>
+      </c>
+      <c r="T11">
+        <v>0.003482951078649321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.060381</v>
+      </c>
+      <c r="H12">
+        <v>0.181143</v>
+      </c>
+      <c r="I12">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="J12">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.060381</v>
+      </c>
+      <c r="N12">
+        <v>0.181143</v>
+      </c>
+      <c r="O12">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="P12">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="Q12">
+        <v>0.003645865161</v>
+      </c>
+      <c r="R12">
+        <v>0.032812786449</v>
+      </c>
+      <c r="S12">
+        <v>2.634226491997075E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.634226491997075E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.060381</v>
+      </c>
+      <c r="H13">
+        <v>0.181143</v>
+      </c>
+      <c r="I13">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="J13">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.767765</v>
+      </c>
+      <c r="O13">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="P13">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="Q13">
+        <v>0.075833806155</v>
+      </c>
+      <c r="R13">
+        <v>0.682504255395</v>
+      </c>
+      <c r="S13">
+        <v>0.0005479177433640472</v>
+      </c>
+      <c r="T13">
+        <v>0.0005479177433640472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.767765</v>
+      </c>
+      <c r="I14">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="J14">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.464682</v>
+      </c>
+      <c r="N14">
+        <v>7.394045999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2095015056870776</v>
+      </c>
+      <c r="P14">
+        <v>0.2095015056870776</v>
+      </c>
+      <c r="Q14">
+        <v>3.095447525243333</v>
+      </c>
+      <c r="R14">
+        <v>27.85902772719</v>
+      </c>
+      <c r="S14">
+        <v>0.02236536326907448</v>
+      </c>
+      <c r="T14">
+        <v>0.02236536326907448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.767765</v>
+      </c>
+      <c r="I15">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="J15">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.983522666666666</v>
+      </c>
+      <c r="N15">
+        <v>23.950568</v>
+      </c>
+      <c r="O15">
+        <v>0.6786108793562738</v>
+      </c>
+      <c r="P15">
+        <v>0.678610879356274</v>
+      </c>
+      <c r="Q15">
+        <v>10.02667909339111</v>
+      </c>
+      <c r="R15">
+        <v>90.24011184052</v>
+      </c>
+      <c r="S15">
+        <v>0.07244520169615805</v>
+      </c>
+      <c r="T15">
+        <v>0.07244520169615806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.977348597175649</v>
-      </c>
-      <c r="H10">
-        <v>0.977348597175649</v>
-      </c>
-      <c r="I10">
-        <v>0.09278717964524053</v>
-      </c>
-      <c r="J10">
-        <v>0.09278717964524053</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.977348597175649</v>
-      </c>
-      <c r="N10">
-        <v>0.977348597175649</v>
-      </c>
-      <c r="O10">
-        <v>0.09278717964524053</v>
-      </c>
-      <c r="P10">
-        <v>0.09278717964524053</v>
-      </c>
-      <c r="Q10">
-        <v>0.955210280401209</v>
-      </c>
-      <c r="R10">
-        <v>0.955210280401209</v>
-      </c>
-      <c r="S10">
-        <v>0.008609460706518138</v>
-      </c>
-      <c r="T10">
-        <v>0.008609460706518138</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.767765</v>
+      </c>
+      <c r="I16">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="J16">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.060381</v>
+      </c>
+      <c r="N16">
+        <v>0.181143</v>
+      </c>
+      <c r="O16">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="P16">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="Q16">
+        <v>0.075833806155</v>
+      </c>
+      <c r="R16">
+        <v>0.682504255395</v>
+      </c>
+      <c r="S16">
+        <v>0.0005479177433640472</v>
+      </c>
+      <c r="T16">
+        <v>0.0005479177433640472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.767765</v>
+      </c>
+      <c r="I17">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="J17">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.767765</v>
+      </c>
+      <c r="O17">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="P17">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="Q17">
+        <v>1.577339232802778</v>
+      </c>
+      <c r="R17">
+        <v>14.196053095225</v>
+      </c>
+      <c r="S17">
+        <v>0.01139666062903916</v>
+      </c>
+      <c r="T17">
+        <v>0.01139666062903916</v>
       </c>
     </row>
   </sheetData>
